--- a/trabalho_peso3.xlsx
+++ b/trabalho_peso3.xlsx
@@ -370,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B153"/>
+  <dimension ref="A1:B169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="E160" sqref="E160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1552,7 +1552,7 @@
         <v>1.3</v>
       </c>
       <c r="B131">
-        <f t="shared" ref="B131:B153" si="2">SIN(A131)</f>
+        <f t="shared" ref="B131:B169" si="2">SIN(A131)</f>
         <v>0.96355818541719296</v>
       </c>
     </row>
@@ -1750,6 +1750,150 @@
         <v>1.52</v>
       </c>
       <c r="B153">
+        <f t="shared" si="2"/>
+        <v>0.998710143975583</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>1.52</v>
+      </c>
+      <c r="B154">
+        <f t="shared" si="2"/>
+        <v>0.998710143975583</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>1.52</v>
+      </c>
+      <c r="B155">
+        <f t="shared" si="2"/>
+        <v>0.998710143975583</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>1.52</v>
+      </c>
+      <c r="B156">
+        <f t="shared" si="2"/>
+        <v>0.998710143975583</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>1.52</v>
+      </c>
+      <c r="B157">
+        <f t="shared" si="2"/>
+        <v>0.998710143975583</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>1.52</v>
+      </c>
+      <c r="B158">
+        <f t="shared" si="2"/>
+        <v>0.998710143975583</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>1.52</v>
+      </c>
+      <c r="B159">
+        <f t="shared" si="2"/>
+        <v>0.998710143975583</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>1.52</v>
+      </c>
+      <c r="B160">
+        <f t="shared" si="2"/>
+        <v>0.998710143975583</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>1.52</v>
+      </c>
+      <c r="B161">
+        <f t="shared" si="2"/>
+        <v>0.998710143975583</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>1.52</v>
+      </c>
+      <c r="B162">
+        <f t="shared" si="2"/>
+        <v>0.998710143975583</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>1.52</v>
+      </c>
+      <c r="B163">
+        <f t="shared" si="2"/>
+        <v>0.998710143975583</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>1.52</v>
+      </c>
+      <c r="B164">
+        <f t="shared" si="2"/>
+        <v>0.998710143975583</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>1.52</v>
+      </c>
+      <c r="B165">
+        <f t="shared" si="2"/>
+        <v>0.998710143975583</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>1.52</v>
+      </c>
+      <c r="B166">
+        <f t="shared" si="2"/>
+        <v>0.998710143975583</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>1.52</v>
+      </c>
+      <c r="B167">
+        <f t="shared" si="2"/>
+        <v>0.998710143975583</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>1.52</v>
+      </c>
+      <c r="B168">
+        <f t="shared" si="2"/>
+        <v>0.998710143975583</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>1.52</v>
+      </c>
+      <c r="B169">
         <f t="shared" si="2"/>
         <v>0.998710143975583</v>
       </c>
